--- a/TP 2/Archivos/CSV/Resultados RK4.xlsx
+++ b/TP 2/Archivos/CSV/Resultados RK4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de valores" sheetId="1" r:id="rId1"/>
@@ -82,11 +82,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -265,11 +265,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -290,6 +316,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,28 +334,15 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -723,47 +738,33 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="107625088"/>
-        <c:axId val="107623552"/>
+        <c:dLbls/>
+        <c:axId val="57323520"/>
+        <c:axId val="57325056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107625088"/>
+        <c:axId val="57323520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107623552"/>
+        <c:crossAx val="57325056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107623552"/>
+        <c:axId val="57325056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107625088"/>
+        <c:crossAx val="57323520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -771,15 +772,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -787,28 +786,15 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -828,8 +814,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8174113370963764E-2"/>
-                  <c:y val="0.33927436369277758"/>
+                  <c:x val="-4.817411337096375E-2"/>
+                  <c:y val="0.33927436369277769"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1075,47 +1061,33 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="159346048"/>
-        <c:axId val="159344512"/>
+        <c:dLbls/>
+        <c:axId val="57653888"/>
+        <c:axId val="57946496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159346048"/>
+        <c:axId val="57653888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159344512"/>
+        <c:crossAx val="57946496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159344512"/>
+        <c:axId val="57946496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159346048"/>
+        <c:crossAx val="57653888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1123,15 +1095,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1208,19 +1178,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoRK4ValoresPaso05" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoRK4ValoresPaso1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoRK4ValoresPaso2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoRK4ValoresPaso4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoRK4ValoresPaso05" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoRK4ValoresPaso1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1298,7 +1268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1333,7 +1302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1509,26 +1477,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L245"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
       <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1512,7 @@
       </c>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="4">
         <v>0</v>
@@ -1602,7 +1568,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="6">
         <v>4</v>
@@ -1632,7 +1598,7 @@
         <v>10000138889.5756</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="6">
         <v>8</v>
@@ -1662,7 +1628,7 @@
         <v>10000555570.7101</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="6">
         <v>12</v>
@@ -1692,7 +1658,7 @@
         <v>10001250078.128201</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>16</v>
@@ -1722,7 +1688,7 @@
         <v>10002222468.8762</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>20</v>
@@ -1752,7 +1718,7 @@
         <v>10003472824.8304</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>24</v>
@@ -1782,7 +1748,7 @@
         <v>10005001250.2083</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>28</v>
@@ -1812,7 +1778,7 @@
         <v>10006807871.5823</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>32</v>
@@ -1842,7 +1808,7 @@
         <v>10008892840.398899</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>36</v>
@@ -1872,7 +1838,7 @@
         <v>10011256330.498699</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>40</v>
@@ -1902,7 +1868,7 @@
         <v>10013898538.139299</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>44</v>
@@ -1932,7 +1898,7 @@
         <v>10016819684.525999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>48</v>
@@ -1962,7 +1928,7 @@
         <v>10020020013.34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>52</v>
@@ -1992,7 +1958,7 @@
         <v>10023499790.770399</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>56</v>
@@ -2022,7 +1988,7 @@
         <v>10027259308.0574</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>60</v>
@@ -2052,7 +2018,7 @@
         <v>10031298879.0273</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>64</v>
@@ -2082,7 +2048,7 @@
         <v>10035618840.1353</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>68</v>
@@ -2112,7 +2078,7 @@
         <v>10040219553.019899</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <v>72</v>
@@ -2142,7 +2108,7 @@
         <v>10045101402.046</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <v>76</v>
@@ -2172,7 +2138,7 @@
         <v>10050264794.356501</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>80</v>
@@ -2202,7 +2168,7 @@
         <v>10055710162.4408</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>84</v>
@@ -2232,7 +2198,7 @@
         <v>10061437961.684099</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>88</v>
@@ -2262,7 +2228,7 @@
         <v>10067448670.428499</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>92</v>
@@ -2292,7 +2258,7 @@
         <v>10073742792.555799</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>96</v>
@@ -2322,7 +2288,7 @@
         <v>10080320855.0427</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="6">
         <v>100</v>
@@ -2352,7 +2318,7 @@
         <v>10087183408.0317</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="6">
         <v>104</v>
@@ -2382,7 +2348,7 @@
         <v>10094331027.428699</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="6">
         <v>108</v>
@@ -2412,7 +2378,7 @@
         <v>10101764312.4639</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="6">
         <v>112</v>
@@ -2442,7 +2408,7 @@
         <v>10109483885.772499</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="6">
         <v>116</v>
@@ -2472,7 +2438,7 @@
         <v>10117490396.0075</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="8">
         <v>120</v>
@@ -2495,14 +2461,14 @@
         <v>10512710963.759899</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="6">
+      <c r="K33" s="12">
         <v>15</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="13">
         <v>10125784515.4063</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2528,7 +2494,7 @@
         <v>10134366939.8808</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2554,7 +2520,7 @@
         <v>10143238391.647301</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2580,7 +2546,7 @@
         <v>10152399616.7969</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2606,7 +2572,7 @@
         <v>10161851385.396299</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2632,7 +2598,7 @@
         <v>10171594494.134501</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2658,7 +2624,7 @@
         <v>10181629763.8979</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2684,7 +2650,7 @@
         <v>10191958039.880699</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2710,7 +2676,7 @@
         <v>10202580194.2505</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2736,7 +2702,7 @@
         <v>10213497123.726101</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2762,7 +2728,7 @@
         <v>10224709749.699301</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2788,7 +2754,7 @@
         <v>10236219020.9189</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2814,7 +2780,7 @@
         <v>10248025911.071899</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2840,7 +2806,7 @@
         <v>10260131418.916201</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2866,7 +2832,7 @@
         <v>10272536570.9841</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2892,7 +2858,7 @@
         <v>10285242419.1665</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2918,7 +2884,7 @@
         <v>10298250040.8564</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2944,7 +2910,7 @@
         <v>10311560541.6737</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2970,7 +2936,7 @@
         <v>10325175053.0511</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2996,7 +2962,7 @@
         <v>10339094732.3892</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3022,7 +2988,7 @@
         <v>10353320765.8029</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3048,7 +3014,7 @@
         <v>10367854365.7094</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3074,7 +3040,7 @@
         <v>10382696770.994699</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3100,7 +3066,7 @@
         <v>10397849249.7827</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3126,7 +3092,7 @@
         <v>10413313097.025101</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3152,7 +3118,7 @@
         <v>10429089634.6791</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3178,7 +3144,7 @@
         <v>10445180214.500999</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3204,7 +3170,7 @@
         <v>10461586215.636299</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3230,7 +3196,7 @@
         <v>10478309044.810801</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3256,7 +3222,7 @@
         <v>10495350139.1479</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3268,10 +3234,10 @@
         <v>1710.17681453299</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="6">
+      <c r="H63" s="12">
         <v>60</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="13">
         <v>12214027581.586901</v>
       </c>
       <c r="J63" s="1"/>
@@ -3282,7 +3248,7 @@
         <v>10512710963.760201</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3304,7 +3270,7 @@
         <v>10530393011.9526</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3326,7 +3292,7 @@
         <v>10548397808.065901</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3348,7 +3314,7 @@
         <v>10566726905.068899</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3370,7 +3336,7 @@
         <v>10585381884.7738</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3392,7 +3358,7 @@
         <v>10604364360.7075</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3414,7 +3380,7 @@
         <v>10623675975.703199</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3436,7 +3402,7 @@
         <v>10643318402.1297</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3458,7 +3424,7 @@
         <v>10663293344.7904</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3480,7 +3446,7 @@
         <v>10683602538.514999</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3502,7 +3468,7 @@
         <v>10704247748.402201</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3524,7 +3490,7 @@
         <v>10725230772.748199</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3546,7 +3512,7 @@
         <v>10746553440.638</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3568,7 +3534,7 @@
         <v>10768217612.202299</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3590,7 +3556,7 @@
         <v>10790225181.5763</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3612,7 +3578,7 @@
         <v>10812578074.490299</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3634,7 +3600,7 @@
         <v>10835278248.541401</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3656,7 +3622,7 @@
         <v>10858327696.1842</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3678,7 +3644,7 @@
         <v>10881728442.319901</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3700,7 +3666,7 @@
         <v>10905482544.5839</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3722,7 +3688,7 @@
         <v>10929592096.368601</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3744,7 +3710,7 @@
         <v>10954059224.4126</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3766,7 +3732,7 @@
         <v>10978886089.102301</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3788,7 +3754,7 @@
         <v>11004074887.531</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3810,7 +3776,7 @@
         <v>11029627851.0849</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3832,7 +3798,7 @@
         <v>11055547245.762501</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3854,7 +3820,7 @@
         <v>11081835375.2682</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3876,7 +3842,7 @@
         <v>11108494578.5977</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3898,7 +3864,7 @@
         <v>11135527230.3734</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3920,7 +3886,7 @@
         <v>11162935743.976</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3942,7 +3908,7 @@
         <v>11190722569.1276</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3964,7 +3930,7 @@
         <v>11218890192.244801</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3986,7 +3952,7 @@
         <v>11247441139.6089</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4008,7 +3974,7 @@
         <v>11276377974.947399</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4030,7 +3996,7 @@
         <v>11305703299.804501</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4052,7 +4018,7 @@
         <v>11335419756.752399</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4074,7 +4040,7 @@
         <v>11365530026.970301</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4096,7 +4062,7 @@
         <v>11396036830.6339</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4118,7 +4084,7 @@
         <v>11426942930.168501</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4140,7 +4106,7 @@
         <v>11458251127.825399</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4162,7 +4128,7 @@
         <v>11489964266.091999</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4184,7 +4150,7 @@
         <v>11522085230.987301</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4206,7 +4172,7 @@
         <v>11554616949.637199</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4228,7 +4194,7 @@
         <v>11587562390.703501</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4250,7 +4216,7 @@
         <v>11620924567.726299</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4272,7 +4238,7 @@
         <v>11654706536.6954</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4294,7 +4260,7 @@
         <v>11688911396.5019</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4316,7 +4282,7 @@
         <v>11723542292.326599</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4338,7 +4304,7 @@
         <v>11758602413.209499</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4360,7 +4326,7 @@
         <v>11794094992.5231</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4382,7 +4348,7 @@
         <v>11830023311.4104</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4404,7 +4370,7 @@
         <v>11866390696.351299</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4426,7 +4392,7 @@
         <v>11903200519.6591</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4448,7 +4414,7 @@
         <v>11940456202.9694</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4470,7 +4436,7 @@
         <v>11978161214.804199</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4492,7 +4458,7 @@
         <v>12016319071.091999</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4514,7 +4480,7 @@
         <v>12054933338.709999</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4536,7 +4502,7 @@
         <v>12094007633.045401</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4558,7 +4524,7 @@
         <v>12133545618.540501</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4580,7 +4546,7 @@
         <v>12173551012.2903</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.75" thickBot="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4602,7 +4568,7 @@
         <v>12214027581.6008</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4620,7 +4586,7 @@
         <v>12254638733.882299</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4638,7 +4604,7 @@
         <v>12295043382.549999</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4656,7 +4622,7 @@
         <v>12335238598.3685</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4674,7 +4640,7 @@
         <v>12375221460.997999</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4692,7 +4658,7 @@
         <v>12414989056.257401</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4710,7 +4676,7 @@
         <v>12454538479.556</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4728,7 +4694,7 @@
         <v>12493866836.2609</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4746,7 +4712,7 @@
         <v>12532971238.930099</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4764,7 +4730,7 @@
         <v>12571848810.774099</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4782,7 +4748,7 @@
         <v>12610496686.0221</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4800,7 +4766,7 @@
         <v>12648912007.1255</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4818,7 +4784,7 @@
         <v>12687091928.2477</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4836,7 +4802,7 @@
         <v>12725033615.629</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4854,7 +4820,7 @@
         <v>12762734244.7603</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4872,7 +4838,7 @@
         <v>12800191003.900101</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4890,7 +4856,7 @@
         <v>12837401094.4375</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4908,7 +4874,7 @@
         <v>12874361728.0362</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4926,7 +4892,7 @@
         <v>12911070130.177601</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4944,7 +4910,7 @@
         <v>12947523540.521601</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4962,7 +4928,7 @@
         <v>12983719210.0203</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4980,7 +4946,7 @@
         <v>13019654404.4865</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4998,7 +4964,7 @@
         <v>13055326404.9517</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5016,7 +4982,7 @@
         <v>13090732504.749701</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5034,7 +5000,7 @@
         <v>13125870013.1094</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5052,7 +5018,7 @@
         <v>11424240056.919201</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5070,7 +5036,7 @@
         <v>9670422339.8477993</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5088,7 +5054,7 @@
         <v>8185845865.0286999</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5106,7 +5072,7 @@
         <v>6929177462.0737104</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5124,7 +5090,7 @@
         <v>5865429314.52349</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5142,7 +5108,7 @@
         <v>4964984838.67313</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5160,7 +5126,7 @@
         <v>4202774106.7844901</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5178,7 +5144,7 @@
         <v>3557575857.0450401</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5196,7 +5162,7 @@
         <v>3011426657.0260701</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5214,7 +5180,7 @@
         <v>2549120770.73171</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5232,7 +5198,7 @@
         <v>2157786804.67449</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5250,7 +5216,7 @@
         <v>1826529346.0736401</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5268,7 +5234,7 @@
         <v>1546125615.76559</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5286,7 +5252,7 @@
         <v>1308768690.1199901</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5304,7 +5270,7 @@
         <v>1107850142.8166499</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5322,7 +5288,7 @@
         <v>937776054.85531795</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5340,7 +5306,7 @@
         <v>793811270.19951296</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5358,7 +5324,7 @@
         <v>671947560.86300695</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5376,7 +5342,7 @@
         <v>568792030.92727995</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5394,7 +5360,7 @@
         <v>481472652.46541798</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5412,7 +5378,7 @@
         <v>407558303.329539</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5430,7 +5396,7 @@
         <v>344991080.5158</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5448,7 +5414,7 @@
         <v>292029004.59428</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5466,7 +5432,7 @@
         <v>247197519.996232</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5484,7 +5450,7 @@
         <v>209248440.84300399</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5502,7 +5468,7 @@
         <v>177125199.29769301</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5520,7 +5486,7 @@
         <v>149933428.89367801</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5538,7 +5504,7 @@
         <v>126916063.829142</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5556,7 +5522,7 @@
         <v>107432260.948993</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5574,7 +5540,7 @@
         <v>90939557.565781102</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5592,7 +5558,7 @@
         <v>76978768.362572297</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5610,7 +5576,7 @@
         <v>65161200.8814997</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5628,7 +5594,7 @@
         <v>55157833.655124903</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5646,7 +5612,7 @@
         <v>46690155.681127302</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5664,7 +5630,7 @@
         <v>39522412.195486203</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5682,7 +5648,7 @@
         <v>33455040.853104301</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5700,7 +5666,7 @@
         <v>28319115.567817099</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5718,7 +5684,7 @@
         <v>23971643.318706799</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5736,7 +5702,7 @@
         <v>20291582.977695201</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5754,7 +5720,7 @@
         <v>17176475.315706499</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5772,7 +5738,7 @@
         <v>14539590.360958001</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5790,7 +5756,7 @@
         <v>12307512.6869104</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5808,7 +5774,7 @@
         <v>10418097.4001307</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5826,7 +5792,7 @@
         <v>8818739.9192400202</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5844,7 +5810,7 @@
         <v>7464911.3726102896</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5862,7 +5828,7 @@
         <v>6318918.8377525797</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5880,7 +5846,7 @@
         <v>5348855.9053236796</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5898,7 +5864,7 @@
         <v>4527714.3496420803</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5916,7 +5882,7 @@
         <v>3832632.1730879098</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5934,7 +5900,7 @@
         <v>3244257.0886455602</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5952,7 +5918,7 @@
         <v>2746207.71884481</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5970,7 +5936,7 @@
         <v>2324617.50994936</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5988,7 +5954,7 @@
         <v>1967748.6631769801</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6006,7 +5972,7 @@
         <v>1665665.3341302299</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6024,7 +5990,7 @@
         <v>1409957.0017462301</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6042,7 +6008,7 @@
         <v>1193504.30487965</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6060,7 +6026,7 @@
         <v>1010280.82700541</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6078,7 +6044,7 @@
         <v>855185.310385335</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6096,7 +6062,7 @@
         <v>723899.62825152604</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6114,7 +6080,7 @@
         <v>612768.56070712605</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6132,7 +6098,7 @@
         <v>518698.027098055</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6150,7 +6116,7 @@
         <v>439068.94146941497</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6168,7 +6134,7 @@
         <v>371664.29269380902</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6186,7 +6152,7 @@
         <v>314607.41905656201</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6204,7 +6170,7 @@
         <v>266309.75875579403</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6222,7 +6188,7 @@
         <v>225426.62160112199</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6240,7 +6206,7 @@
         <v>190819.750518774</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6258,7 +6224,7 @@
         <v>161525.63051082799</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6276,7 +6242,7 @@
         <v>136728.66273532601</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6294,7 +6260,7 @@
         <v>115738.456827366</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6312,7 +6278,7 @@
         <v>97970.609240217804</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6330,7 +6296,7 @@
         <v>82930.432442312696</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6348,7 +6314,7 @@
         <v>70199.181962887495</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6366,7 +6332,7 @@
         <v>59422.397823458901</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6384,7 +6350,7 @@
         <v>50300.035760476101</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6402,7 +6368,7 @@
         <v>42578.1134753593</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6420,7 +6386,7 @@
         <v>36041.639329113103</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6438,7 +6404,7 @@
         <v>30508.6266041737</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6456,7 +6422,7 @@
         <v>25825.026680211198</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6474,7 +6440,7 @@
         <v>21860.440054760798</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6492,7 +6458,7 @@
         <v>18504.485796096898</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6510,7 +6476,7 @@
         <v>15663.7283476541</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6528,7 +6494,7 @@
         <v>13259.0761209293</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6546,7 +6512,7 @@
         <v>11223.579449201001</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6564,7 +6530,7 @@
         <v>9500.5665933003602</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6582,7 +6548,7 @@
         <v>8042.0659026171897</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6600,7 +6566,7 @@
         <v>6807.4702015820503</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6618,7 +6584,7 @@
         <v>5762.4062158389197</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6636,7 +6602,7 @@
         <v>4877.7775609832497</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6654,7 +6620,7 @@
         <v>4128.9546490203102</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6672,7 +6638,7 @@
         <v>3495.0889581422298</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6690,7 +6656,7 @@
         <v>2958.5325739109699</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6708,7 +6674,7 @@
         <v>2504.3468408726098</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6726,7 +6692,7 @@
         <v>2119.88644461597</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6744,7 +6710,7 @@
         <v>1794.44734440245</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="15.75" thickBot="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6762,7 +6728,7 @@
         <v>1518.96875420435</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6776,7 +6742,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6803,14 +6769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6818,14 +6784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
